--- a/biology/Médecine/Thrombophilie/Thrombophilie.xlsx
+++ b/biology/Médecine/Thrombophilie/Thrombophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme  thrombophilie désigne l'état de patients qui présentent une prédisposition particulière aux thromboses.
 Il recouvre deux situations médicales différentes :
@@ -516,9 +528,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Environ un tiers des bilans de thrombophilie montrent une anomalie, les trois fréquentes étant la mutation du facteur V, le syndrome des antiphospholipides et la mutation de la prothrombine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ un tiers des bilans de thrombophilie montrent une anomalie, les trois fréquentes étant la mutation du facteur V, le syndrome des antiphospholipides et la mutation de la prothrombine.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont essentiellement les manifestations thrombo-embolique : Phlébites, embolies, thromboses. Le risque thromboembolique est à peu près du même ordre pour les patients porteurs d'un déficit en protéine C ou S ou en antithrombine III avec une incidence annuelle un peu inférieure à 2 %. Il est deux fois supérieur par rapport à celui des patients porteurs d'une thrombophilie par mutation du facteur V ou par Thrombophilie par mutation G20210A du gène de la prothrombine[2]
-Il existe également un risque d'infertilité chez la femme avec une augmentation du risque de fausse-couche ou de pré-éclampsie[3] dont la raison n'est pas claire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont essentiellement les manifestations thrombo-embolique : Phlébites, embolies, thromboses. Le risque thromboembolique est à peu près du même ordre pour les patients porteurs d'un déficit en protéine C ou S ou en antithrombine III avec une incidence annuelle un peu inférieure à 2 %. Il est deux fois supérieur par rapport à celui des patients porteurs d'une thrombophilie par mutation du facteur V ou par Thrombophilie par mutation G20210A du gène de la prothrombine
+Il existe également un risque d'infertilité chez la femme avec une augmentation du risque de fausse-couche ou de pré-éclampsie dont la raison n'est pas claire.
 </t>
         </is>
       </c>
@@ -579,12 +595,14 @@
           <t>Examens de laboratoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les examens standards comportent un hémogramme y compris la numération des plaquettes, la mesure du taux de prothrombine, du temps de céphaline activé (permet en particulier de s'assurer de l'absence ou de la présence d'un traitement anticoagulant pouvant rendre difficile l'interprétation d'autres dosages).
 La recherche d'une thrombophilie héréditaire se base sur le dosage des inhibiteurs de la coagulation, Antithrombine, Protéine C, Protéine S (dosage direct ou mesure de l'activité) et par la recherche de mutation ponctuelle : Mutation du facteur V, Mutation de la prothrombine.
 La recherche d'un syndrome des antiphospholipides est souvent faite, s'agissant d'une cause fréquente de thrombophilie acquise.
-Une anomalie de ces dosages ne prouve pas l'existence d'une thrombophilie. Ainsi un déficit modéré en protéine S n'augmente pas le risque thrombotique[4].
+Une anomalie de ces dosages ne prouve pas l'existence d'une thrombophilie. Ainsi un déficit modéré en protéine S n'augmente pas le risque thrombotique.
 </t>
         </is>
       </c>
@@ -615,15 +633,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Circonstances acquises favorisant l’apparition de thromboses
-Il existe une hypercoagulabilité sanguine physiologique pendant la grossesse et dans le mois suivant l’accouchement.
+          <t>Circonstances acquises favorisant l’apparition de thromboses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe une hypercoagulabilité sanguine physiologique pendant la grossesse et dans le mois suivant l’accouchement.
 syndrome des antiphospholipides
 stase veineuse : alitement prolongé, compression veineuse extrinsèque, varices.
 cancer
-hyperplaquettose
-Hypercoagulabilité d'origine génétique
-Thrombophilie par mutation du facteur V la plus fréquente des thrombophilies, la  mutation du facteur V entraînant une augmentation de résistance à la protéine C.
-Thrombophilie par mutation G20210A du gène de la prothrombine, deuxième cause de thrombophilie héréditaire par ordre de fréquence[5].
+hyperplaquettose</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thrombophilie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombophilie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hypercoagulabilité d'origine génétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thrombophilie par mutation du facteur V la plus fréquente des thrombophilies, la  mutation du facteur V entraînant une augmentation de résistance à la protéine C.
+Thrombophilie par mutation G20210A du gène de la prothrombine, deuxième cause de thrombophilie héréditaire par ordre de fréquence.
 Déficit en protéine C. La protéine C est un inhibiteur de la coagulation par inactivation du facteur Va et du facteur VIIIa.
 Déficit en protéine S. La protéine S est un inhibiteur de la coagulation, cofacteur de la protéine C.
 Déficit en antithrombine III. L'antithrombine fait partie des inhibiteurs de la coagulation. C'est la plus thrombogène des thrombophilies constitutionnelles.
@@ -633,39 +690,7 @@
 Hyperhomocystéinémie qui peut être héréditaire ou acquise
 Anomalie du plasminogène
 Augmentation de l'activité des inhibiteurs de la fibrinolyse
-D'autres facteurs génétiques ne sont probablement pas détectés : ainsi un antécédent familial de maladie thromboembolique augmente le risque de survenue d'une thrombose, même en l'absence de l'une des anomalies citées ci-dessus[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Thrombophilie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Thrombophilie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Indications de la recherche d'une thrombophilie héréditaire</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indication d'une recherche de thrombophilie a fait l'objet de recommandation (médecine)s publiées par la Fondation Européenne de génétique ainsi que d'autres sociétés savantes internationales datant de 2005[6].
-Une thrombophilie héréditaire doit être recherché en cas de survenue d'une maladie thrombo-embolique chez un sujet jeune, sans explication évidente, et d'autant plus s'il s'agit d'une maladie récidivante ou qu'il existe une notion familiale de phlébite ou d'embolie pulmonaire. Cette recherche doit être faite, soit avant l'introduction de tout traitement anticoagulant, soit après arrêt de plusieurs jours de ce dernier. Elle permet d'estimer le risque de récidive d'un accident thrombotique, et d'éventuellement, décider de prolonger substantiellement la durée du traitement anticoagulant en fonction de ce risque.
+D'autres facteurs génétiques ne sont probablement pas détectés : ainsi un antécédent familial de maladie thromboembolique augmente le risque de survenue d'une thrombose, même en l'absence de l'une des anomalies citées ci-dessus.
 </t>
         </is>
       </c>
@@ -691,14 +716,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Indications de la recherche d'une thrombophilie héréditaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indication d'une recherche de thrombophilie a fait l'objet de recommandation (médecine)s publiées par la Fondation Européenne de génétique ainsi que d'autres sociétés savantes internationales datant de 2005.
+Une thrombophilie héréditaire doit être recherché en cas de survenue d'une maladie thrombo-embolique chez un sujet jeune, sans explication évidente, et d'autant plus s'il s'agit d'une maladie récidivante ou qu'il existe une notion familiale de phlébite ou d'embolie pulmonaire. Cette recherche doit être faite, soit avant l'introduction de tout traitement anticoagulant, soit après arrêt de plusieurs jours de ce dernier. Elle permet d'estimer le risque de récidive d'un accident thrombotique, et d'éventuellement, décider de prolonger substantiellement la durée du traitement anticoagulant en fonction de ce risque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thrombophilie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombophilie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement d'une thrombophilie acquise est celui de sa cause, quand elle est possible. 
 Le traitement d'une thrombophilie héréditaire repose sur la prolongation d'un traitement anticoagulant, donné classiquement pendant trois à six mois lors d'une phlébite ou une embolie pulmonaire. 
-L'indication de cette prolongation est en fonction de l'anomalie retrouvée. Ainsi une mutation hétérozygote du facteur V ou de la prothrombine n'augmente que peu le risque de récidive et ne conduit pas à modifier le traitement standard[7], sauf en cas de mise en route d'une contraception œstroprogestative où le risque thrombotique est très substantiellement augmenté, même s'il ne l'est guère en l'absence de ce traitement[8].
+L'indication de cette prolongation est en fonction de l'anomalie retrouvée. Ainsi une mutation hétérozygote du facteur V ou de la prothrombine n'augmente que peu le risque de récidive et ne conduit pas à modifier le traitement standard, sauf en cas de mise en route d'une contraception œstroprogestative où le risque thrombotique est très substantiellement augmenté, même s'il ne l'est guère en l'absence de ce traitement.
 </t>
         </is>
       </c>
